--- a/docs/balance_sheet_sina.xlsx
+++ b/docs/balance_sheet_sina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\tmp\akshare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\tmp\akshare\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD10BF3-DEE3-4CA3-B23D-9A644790D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC860B-0E14-47F3-9666-0787407717AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,1183 +22,1187 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="393">
   <si>
+    <t>20250331</t>
+  </si>
+  <si>
+    <t>20241231</t>
+  </si>
+  <si>
+    <t>20240930</t>
+  </si>
+  <si>
+    <t>20240630</t>
+  </si>
+  <si>
+    <t>20240331</t>
+  </si>
+  <si>
+    <t>20231231</t>
+  </si>
+  <si>
+    <t>20230930</t>
+  </si>
+  <si>
+    <t>20230630</t>
+  </si>
+  <si>
+    <t>20230331</t>
+  </si>
+  <si>
+    <t>20221231</t>
+  </si>
+  <si>
+    <t>20220930</t>
+  </si>
+  <si>
+    <t>20220630</t>
+  </si>
+  <si>
+    <t>20220331</t>
+  </si>
+  <si>
+    <t>20211231</t>
+  </si>
+  <si>
+    <t>20210930</t>
+  </si>
+  <si>
+    <t>20210630</t>
+  </si>
+  <si>
+    <t>20210331</t>
+  </si>
+  <si>
+    <t>20201231</t>
+  </si>
+  <si>
+    <t>20200930</t>
+  </si>
+  <si>
+    <t>20200630</t>
+  </si>
+  <si>
+    <t>20200331</t>
+  </si>
+  <si>
+    <t>20191231</t>
+  </si>
+  <si>
+    <t>20190930</t>
+  </si>
+  <si>
+    <t>20190630</t>
+  </si>
+  <si>
+    <t>20190331</t>
+  </si>
+  <si>
+    <t>20181231</t>
+  </si>
+  <si>
+    <t>20180930</t>
+  </si>
+  <si>
+    <t>20180630</t>
+  </si>
+  <si>
+    <t>20180331</t>
+  </si>
+  <si>
+    <t>20171231</t>
+  </si>
+  <si>
+    <t>20170930</t>
+  </si>
+  <si>
+    <t>20170630</t>
+  </si>
+  <si>
+    <t>20170331</t>
+  </si>
+  <si>
+    <t>20161231</t>
+  </si>
+  <si>
+    <t>20160930</t>
+  </si>
+  <si>
+    <t>20160630</t>
+  </si>
+  <si>
+    <t>20160331</t>
+  </si>
+  <si>
+    <t>20151231</t>
+  </si>
+  <si>
+    <t>20150930</t>
+  </si>
+  <si>
+    <t>20150630</t>
+  </si>
+  <si>
+    <t>20150331</t>
+  </si>
+  <si>
+    <t>20141231</t>
+  </si>
+  <si>
+    <t>20140930</t>
+  </si>
+  <si>
+    <t>20140630</t>
+  </si>
+  <si>
+    <t>20140331</t>
+  </si>
+  <si>
+    <t>20131231</t>
+  </si>
+  <si>
+    <t>20130930</t>
+  </si>
+  <si>
+    <t>20130630</t>
+  </si>
+  <si>
+    <t>20130331</t>
+  </si>
+  <si>
+    <t>20121231</t>
+  </si>
+  <si>
+    <t>20120930</t>
+  </si>
+  <si>
+    <t>20120630</t>
+  </si>
+  <si>
+    <t>20120331</t>
+  </si>
+  <si>
+    <t>20111231</t>
+  </si>
+  <si>
+    <t>20110930</t>
+  </si>
+  <si>
+    <t>20110630</t>
+  </si>
+  <si>
+    <t>20110331</t>
+  </si>
+  <si>
+    <t>20101231</t>
+  </si>
+  <si>
+    <t>20100930</t>
+  </si>
+  <si>
+    <t>20100630</t>
+  </si>
+  <si>
+    <t>20100331</t>
+  </si>
+  <si>
+    <t>20091231</t>
+  </si>
+  <si>
+    <t>20090930</t>
+  </si>
+  <si>
+    <t>20090630</t>
+  </si>
+  <si>
+    <t>20090331</t>
+  </si>
+  <si>
+    <t>20081231</t>
+  </si>
+  <si>
+    <t>20080930</t>
+  </si>
+  <si>
+    <t>20080630</t>
+  </si>
+  <si>
+    <t>20080331</t>
+  </si>
+  <si>
+    <t>20071231</t>
+  </si>
+  <si>
+    <t>20070930</t>
+  </si>
+  <si>
+    <t>20070630</t>
+  </si>
+  <si>
+    <t>20070331</t>
+  </si>
+  <si>
+    <t>20061231</t>
+  </si>
+  <si>
+    <t>20060930</t>
+  </si>
+  <si>
+    <t>20060630</t>
+  </si>
+  <si>
+    <t>20060331</t>
+  </si>
+  <si>
+    <t>20051231</t>
+  </si>
+  <si>
+    <t>20050930</t>
+  </si>
+  <si>
+    <t>20050630</t>
+  </si>
+  <si>
+    <t>20050331</t>
+  </si>
+  <si>
+    <t>20041231</t>
+  </si>
+  <si>
+    <t>20040930</t>
+  </si>
+  <si>
+    <t>20040630</t>
+  </si>
+  <si>
+    <t>20040331</t>
+  </si>
+  <si>
+    <t>20031231</t>
+  </si>
+  <si>
+    <t>20030930</t>
+  </si>
+  <si>
+    <t>20030630</t>
+  </si>
+  <si>
+    <t>20030331</t>
+  </si>
+  <si>
+    <t>20021231</t>
+  </si>
+  <si>
+    <t>20020930</t>
+  </si>
+  <si>
+    <t>20020630</t>
+  </si>
+  <si>
+    <t>20020331</t>
+  </si>
+  <si>
+    <t>20011231</t>
+  </si>
+  <si>
+    <t>20010630</t>
+  </si>
+  <si>
+    <t>20001231</t>
+  </si>
+  <si>
+    <t>20000630</t>
+  </si>
+  <si>
+    <t>19991231</t>
+  </si>
+  <si>
+    <t>19990630</t>
+  </si>
+  <si>
+    <t>19981231</t>
+  </si>
+  <si>
+    <t>19980630</t>
+  </si>
+  <si>
+    <t>19971231</t>
+  </si>
+  <si>
+    <t>19970630</t>
+  </si>
+  <si>
+    <t>19961231</t>
+  </si>
+  <si>
+    <t>19960630</t>
+  </si>
+  <si>
+    <t>19951231</t>
+  </si>
+  <si>
+    <t>19950630</t>
+  </si>
+  <si>
+    <t>19941231</t>
+  </si>
+  <si>
+    <t>19940630</t>
+  </si>
+  <si>
+    <t>19931231</t>
+  </si>
+  <si>
+    <t>19930630</t>
+  </si>
+  <si>
+    <t>19921231</t>
+  </si>
+  <si>
+    <t>流动资产</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>结算备付金</t>
+  </si>
+  <si>
+    <t>拆出资金</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>买入返售金融资产</t>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+  </si>
+  <si>
+    <t>应收票据及应收账款</t>
+  </si>
+  <si>
+    <t>应收票据</t>
+  </si>
+  <si>
+    <t>应收账款</t>
+  </si>
+  <si>
+    <t>应收款项融资</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+  </si>
+  <si>
+    <t>应收股利</t>
+  </si>
+  <si>
+    <t>应收利息</t>
+  </si>
+  <si>
+    <t>应收保费</t>
+  </si>
+  <si>
+    <t>应收分保账款</t>
+  </si>
+  <si>
+    <t>应收分保合同准备金</t>
+  </si>
+  <si>
+    <t>应收出口退税</t>
+  </si>
+  <si>
+    <t>应收补贴款</t>
+  </si>
+  <si>
+    <t>应收保证金</t>
+  </si>
+  <si>
+    <t>内部应收款</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>其他应收款(合计)</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>划分为持有待售的资产</t>
+  </si>
+  <si>
+    <t>待摊费用</t>
+  </si>
+  <si>
+    <t>待处理流动资产损益</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>流动资产合计</t>
+  </si>
+  <si>
+    <t>非流动资产</t>
+  </si>
+  <si>
+    <t>发放贷款及垫款</t>
+  </si>
+  <si>
+    <t>债权投资</t>
+  </si>
+  <si>
+    <t>其他债权投资</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入其他综合收益的金融资产</t>
+  </si>
+  <si>
+    <t>以摊余成本计量的金融资产</t>
+  </si>
+  <si>
+    <t>可供出售金融资产</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>长期应收款</t>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产</t>
+  </si>
+  <si>
+    <t>其他长期投资</t>
+  </si>
+  <si>
+    <t>固定资产原值</t>
+  </si>
+  <si>
+    <t>累计折旧</t>
+  </si>
+  <si>
+    <t>固定资产净值</t>
+  </si>
+  <si>
+    <t>固定资产减值准备</t>
+  </si>
+  <si>
+    <t>在建工程合计</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+  </si>
+  <si>
+    <t>工程物资</t>
+  </si>
+  <si>
+    <t>固定资产净额</t>
+  </si>
+  <si>
+    <t>固定资产清理</t>
+  </si>
+  <si>
+    <t>固定资产及清理合计</t>
+  </si>
+  <si>
+    <t>生产性生物资产</t>
+  </si>
+  <si>
+    <t>公益性生物资产</t>
+  </si>
+  <si>
+    <t>油气资产</t>
+  </si>
+  <si>
+    <t>合同资产</t>
+  </si>
+  <si>
+    <t>使用权资产</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>开发支出</t>
+  </si>
+  <si>
+    <t>商誉</t>
+  </si>
+  <si>
+    <t>长期待摊费用</t>
+  </si>
+  <si>
+    <t>股权分置流通权</t>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>非流动资产合计</t>
+  </si>
+  <si>
+    <t>流动负债</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>向中央银行借款</t>
+  </si>
+  <si>
+    <t>吸收存款及同业存放</t>
+  </si>
+  <si>
+    <t>拆入资金</t>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>应付票据及应付账款</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>卖出回购金融资产款</t>
+  </si>
+  <si>
+    <t>应付手续费及佣金</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>应付股利</t>
+  </si>
+  <si>
+    <t>应付保证金</t>
+  </si>
+  <si>
+    <t>内部应付款</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>其他应付款合计</t>
+  </si>
+  <si>
+    <t>其他应交款</t>
+  </si>
+  <si>
+    <t>担保责任赔偿准备金</t>
+  </si>
+  <si>
+    <t>应付分保账款</t>
+  </si>
+  <si>
+    <t>保险合同准备金</t>
+  </si>
+  <si>
+    <t>代理买卖证券款</t>
+  </si>
+  <si>
+    <t>代理承销证券款</t>
+  </si>
+  <si>
+    <t>国际票证结算</t>
+  </si>
+  <si>
+    <t>国内票证结算</t>
+  </si>
+  <si>
+    <t>预提费用</t>
+  </si>
+  <si>
+    <t>预计流动负债</t>
+  </si>
+  <si>
+    <t>应付短期债券</t>
+  </si>
+  <si>
+    <t>划分为持有待售的负债</t>
+  </si>
+  <si>
+    <t>一年内的递延收益</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>非流动负债</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>应付债券：优先股</t>
+  </si>
+  <si>
+    <t>应付债券：永续债</t>
+  </si>
+  <si>
+    <t>租赁负债</t>
+  </si>
+  <si>
+    <t>长期应付职工薪酬</t>
+  </si>
+  <si>
+    <t>长期应付款</t>
+  </si>
+  <si>
+    <t>长期应付款合计</t>
+  </si>
+  <si>
+    <t>专项应付款</t>
+  </si>
+  <si>
+    <t>预计非流动负债</t>
+  </si>
+  <si>
+    <t>长期递延收益</t>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+  </si>
+  <si>
+    <t>所有者权益</t>
+  </si>
+  <si>
+    <t>实收资本(或股本)</t>
+  </si>
+  <si>
+    <t>其他权益工具</t>
+  </si>
+  <si>
+    <t>优先股</t>
+  </si>
+  <si>
+    <t>永续债</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>减:库存股</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>专项储备</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>一般风险准备</t>
+  </si>
+  <si>
+    <t>未确定的投资损失</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>拟分配现金股利</t>
+  </si>
+  <si>
+    <t>外币报表折算差额</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益合计</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+  </si>
+  <si>
+    <t>负债和所有者权益(或股东权益)总计</t>
+  </si>
+  <si>
+    <t>数据源</t>
+  </si>
+  <si>
+    <t>定期报告</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>是否审计</t>
+  </si>
+  <si>
+    <t>未审计</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>20250429</t>
+  </si>
+  <si>
+    <t>20241030</t>
+  </si>
+  <si>
+    <t>20240830</t>
+  </si>
+  <si>
+    <t>20240430</t>
+  </si>
+  <si>
+    <t>20231028</t>
+  </si>
+  <si>
+    <t>20230828</t>
+  </si>
+  <si>
+    <t>20230425</t>
+  </si>
+  <si>
+    <t>20240327</t>
+  </si>
+  <si>
+    <t>20221027</t>
+  </si>
+  <si>
+    <t>20220826</t>
+  </si>
+  <si>
+    <t>20220429</t>
+  </si>
+  <si>
+    <t>20230323</t>
+  </si>
+  <si>
+    <t>20211029</t>
+  </si>
+  <si>
+    <t>20210826</t>
+  </si>
+  <si>
+    <t>20210423</t>
+  </si>
+  <si>
+    <t>20220329</t>
+  </si>
+  <si>
+    <t>20201030</t>
+  </si>
+  <si>
+    <t>20200831</t>
+  </si>
+  <si>
+    <t>20200430</t>
+  </si>
+  <si>
+    <t>20210329</t>
+  </si>
+  <si>
+    <t>20191029</t>
+  </si>
+  <si>
+    <t>20190816</t>
+  </si>
+  <si>
+    <t>20190430</t>
+  </si>
+  <si>
+    <t>20200330</t>
+  </si>
+  <si>
+    <t>20181029</t>
+  </si>
+  <si>
+    <t>20180829</t>
+  </si>
+  <si>
+    <t>20180427</t>
+  </si>
+  <si>
+    <t>20190329</t>
+  </si>
+  <si>
+    <t>20171031</t>
+  </si>
+  <si>
+    <t>20170831</t>
+  </si>
+  <si>
+    <t>20170428</t>
+  </si>
+  <si>
+    <t>20180328</t>
+  </si>
+  <si>
+    <t>20161031</t>
+  </si>
+  <si>
+    <t>20160831</t>
+  </si>
+  <si>
+    <t>20160426</t>
+  </si>
+  <si>
+    <t>20151028</t>
+  </si>
+  <si>
+    <t>20150831</t>
+  </si>
+  <si>
+    <t>20150430</t>
+  </si>
+  <si>
+    <t>20160329</t>
+  </si>
+  <si>
+    <t>20141031</t>
+  </si>
+  <si>
+    <t>20140829</t>
+  </si>
+  <si>
+    <t>20140430</t>
+  </si>
+  <si>
+    <t>20131031</t>
+  </si>
+  <si>
+    <t>20130830</t>
+  </si>
+  <si>
+    <t>20130427</t>
+  </si>
+  <si>
+    <t>20140326</t>
+  </si>
+  <si>
+    <t>20121031</t>
+  </si>
+  <si>
+    <t>20120816</t>
+  </si>
+  <si>
+    <t>20120427</t>
+  </si>
+  <si>
+    <t>20130328</t>
+  </si>
+  <si>
+    <t>20111028</t>
+  </si>
+  <si>
+    <t>20110815</t>
+  </si>
+  <si>
+    <t>20110429</t>
+  </si>
+  <si>
+    <t>20120330</t>
+  </si>
+  <si>
+    <t>20101020</t>
+  </si>
+  <si>
+    <t>20100816</t>
+  </si>
+  <si>
+    <t>20100430</t>
+  </si>
+  <si>
+    <t>20091030</t>
+  </si>
+  <si>
+    <t>20090807</t>
+  </si>
+  <si>
+    <t>20090430</t>
+  </si>
+  <si>
+    <t>20100409</t>
+  </si>
+  <si>
+    <t>20081029</t>
+  </si>
+  <si>
+    <t>20080820</t>
+  </si>
+  <si>
+    <t>20080430</t>
+  </si>
+  <si>
+    <t>20090409</t>
+  </si>
+  <si>
+    <t>20071024</t>
+  </si>
+  <si>
+    <t>20070828</t>
+  </si>
+  <si>
+    <t>20070430</t>
+  </si>
+  <si>
+    <t>20080422</t>
+  </si>
+  <si>
+    <t>20061031</t>
+  </si>
+  <si>
+    <t>20060829</t>
+  </si>
+  <si>
+    <t>20060428</t>
+  </si>
+  <si>
+    <t>20070420</t>
+  </si>
+  <si>
+    <t>20051028</t>
+  </si>
+  <si>
+    <t>20050822</t>
+  </si>
+  <si>
+    <t>20050429</t>
+  </si>
+  <si>
+    <t>20060404</t>
+  </si>
+  <si>
+    <t>20041027</t>
+  </si>
+  <si>
+    <t>20040812</t>
+  </si>
+  <si>
+    <t>20040430</t>
+  </si>
+  <si>
+    <t>20050412</t>
+  </si>
+  <si>
+    <t>20031029</t>
+  </si>
+  <si>
+    <t>20030814</t>
+  </si>
+  <si>
+    <t>20030430</t>
+  </si>
+  <si>
+    <t>20040402</t>
+  </si>
+  <si>
+    <t>20021030</t>
+  </si>
+  <si>
+    <t>20020814</t>
+  </si>
+  <si>
+    <t>20020430</t>
+  </si>
+  <si>
+    <t>20020404</t>
+  </si>
+  <si>
+    <t>20010830</t>
+  </si>
+  <si>
+    <t>20010419</t>
+  </si>
+  <si>
+    <t>20000831</t>
+  </si>
+  <si>
+    <t>20000418</t>
+  </si>
+  <si>
+    <t>19990824</t>
+  </si>
+  <si>
+    <t>19990422</t>
+  </si>
+  <si>
+    <t>19980828</t>
+  </si>
+  <si>
+    <t>19980421</t>
+  </si>
+  <si>
+    <t>19970827</t>
+  </si>
+  <si>
+    <t>19970425</t>
+  </si>
+  <si>
+    <t>19960823</t>
+  </si>
+  <si>
+    <t>19960417</t>
+  </si>
+  <si>
+    <t>19950829</t>
+  </si>
+  <si>
+    <t>19950426</t>
+  </si>
+  <si>
+    <t>19940818</t>
+  </si>
+  <si>
+    <t>19940428</t>
+  </si>
+  <si>
+    <t>19930824</t>
+  </si>
+  <si>
+    <t>币种</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>合并期末</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>2025-04-28T20:02:03</t>
+  </si>
+  <si>
+    <t>2025-03-31T08:25:36</t>
+  </si>
+  <si>
+    <t>2024-10-29T16:45:05</t>
+  </si>
+  <si>
+    <t>2024-08-29T19:50:07</t>
+  </si>
+  <si>
+    <t>2024-04-29T17:15:04</t>
+  </si>
+  <si>
+    <t>2024-03-26T21:20:04</t>
+  </si>
+  <si>
+    <t>2023-10-27T17:35:34</t>
+  </si>
+  <si>
+    <t>2023-08-27T19:30:05</t>
+  </si>
+  <si>
+    <t>2023-04-24T18:05:05</t>
+  </si>
+  <si>
+    <t>2023-03-22T20:50:09</t>
+  </si>
+  <si>
+    <t>2022-10-26T17:20:07</t>
+  </si>
+  <si>
+    <t>2022-08-25T21:25:04</t>
+  </si>
+  <si>
+    <t>2022-04-28T16:20:04</t>
+  </si>
+  <si>
+    <t>2022-03-29T01:05:06</t>
+  </si>
+  <si>
+    <t>2021-10-28T17:50:06</t>
+  </si>
+  <si>
+    <t>2021-08-25T22:00:03</t>
+  </si>
+  <si>
+    <t>2021-04-22T16:30:03</t>
+  </si>
+  <si>
+    <t>2020-10-29T16:28:08</t>
+  </si>
+  <si>
+    <t>2020-08-30T22:05:03</t>
+  </si>
+  <si>
+    <t>2020-04-29T21:50:02</t>
+  </si>
+  <si>
+    <t>2020-03-29T17:40:03</t>
+  </si>
+  <si>
+    <t>2020-03-13T15:29:48</t>
+  </si>
+  <si>
     <t>报告日</t>
-  </si>
-  <si>
-    <t>20250331</t>
-  </si>
-  <si>
-    <t>20241231</t>
-  </si>
-  <si>
-    <t>20240930</t>
-  </si>
-  <si>
-    <t>20240630</t>
-  </si>
-  <si>
-    <t>20240331</t>
-  </si>
-  <si>
-    <t>20231231</t>
-  </si>
-  <si>
-    <t>20230930</t>
-  </si>
-  <si>
-    <t>20230630</t>
-  </si>
-  <si>
-    <t>20230331</t>
-  </si>
-  <si>
-    <t>20221231</t>
-  </si>
-  <si>
-    <t>20220930</t>
-  </si>
-  <si>
-    <t>20220630</t>
-  </si>
-  <si>
-    <t>20220331</t>
-  </si>
-  <si>
-    <t>20211231</t>
-  </si>
-  <si>
-    <t>20210930</t>
-  </si>
-  <si>
-    <t>20210630</t>
-  </si>
-  <si>
-    <t>20210331</t>
-  </si>
-  <si>
-    <t>20201231</t>
-  </si>
-  <si>
-    <t>20200930</t>
-  </si>
-  <si>
-    <t>20200630</t>
-  </si>
-  <si>
-    <t>20200331</t>
-  </si>
-  <si>
-    <t>20191231</t>
-  </si>
-  <si>
-    <t>20190930</t>
-  </si>
-  <si>
-    <t>20190630</t>
-  </si>
-  <si>
-    <t>20190331</t>
-  </si>
-  <si>
-    <t>20181231</t>
-  </si>
-  <si>
-    <t>20180930</t>
-  </si>
-  <si>
-    <t>20180630</t>
-  </si>
-  <si>
-    <t>20180331</t>
-  </si>
-  <si>
-    <t>20171231</t>
-  </si>
-  <si>
-    <t>20170930</t>
-  </si>
-  <si>
-    <t>20170630</t>
-  </si>
-  <si>
-    <t>20170331</t>
-  </si>
-  <si>
-    <t>20161231</t>
-  </si>
-  <si>
-    <t>20160930</t>
-  </si>
-  <si>
-    <t>20160630</t>
-  </si>
-  <si>
-    <t>20160331</t>
-  </si>
-  <si>
-    <t>20151231</t>
-  </si>
-  <si>
-    <t>20150930</t>
-  </si>
-  <si>
-    <t>20150630</t>
-  </si>
-  <si>
-    <t>20150331</t>
-  </si>
-  <si>
-    <t>20141231</t>
-  </si>
-  <si>
-    <t>20140930</t>
-  </si>
-  <si>
-    <t>20140630</t>
-  </si>
-  <si>
-    <t>20140331</t>
-  </si>
-  <si>
-    <t>20131231</t>
-  </si>
-  <si>
-    <t>20130930</t>
-  </si>
-  <si>
-    <t>20130630</t>
-  </si>
-  <si>
-    <t>20130331</t>
-  </si>
-  <si>
-    <t>20121231</t>
-  </si>
-  <si>
-    <t>20120930</t>
-  </si>
-  <si>
-    <t>20120630</t>
-  </si>
-  <si>
-    <t>20120331</t>
-  </si>
-  <si>
-    <t>20111231</t>
-  </si>
-  <si>
-    <t>20110930</t>
-  </si>
-  <si>
-    <t>20110630</t>
-  </si>
-  <si>
-    <t>20110331</t>
-  </si>
-  <si>
-    <t>20101231</t>
-  </si>
-  <si>
-    <t>20100930</t>
-  </si>
-  <si>
-    <t>20100630</t>
-  </si>
-  <si>
-    <t>20100331</t>
-  </si>
-  <si>
-    <t>20091231</t>
-  </si>
-  <si>
-    <t>20090930</t>
-  </si>
-  <si>
-    <t>20090630</t>
-  </si>
-  <si>
-    <t>20090331</t>
-  </si>
-  <si>
-    <t>20081231</t>
-  </si>
-  <si>
-    <t>20080930</t>
-  </si>
-  <si>
-    <t>20080630</t>
-  </si>
-  <si>
-    <t>20080331</t>
-  </si>
-  <si>
-    <t>20071231</t>
-  </si>
-  <si>
-    <t>20070930</t>
-  </si>
-  <si>
-    <t>20070630</t>
-  </si>
-  <si>
-    <t>20070331</t>
-  </si>
-  <si>
-    <t>20061231</t>
-  </si>
-  <si>
-    <t>20060930</t>
-  </si>
-  <si>
-    <t>20060630</t>
-  </si>
-  <si>
-    <t>20060331</t>
-  </si>
-  <si>
-    <t>20051231</t>
-  </si>
-  <si>
-    <t>20050930</t>
-  </si>
-  <si>
-    <t>20050630</t>
-  </si>
-  <si>
-    <t>20050331</t>
-  </si>
-  <si>
-    <t>20041231</t>
-  </si>
-  <si>
-    <t>20040930</t>
-  </si>
-  <si>
-    <t>20040630</t>
-  </si>
-  <si>
-    <t>20040331</t>
-  </si>
-  <si>
-    <t>20031231</t>
-  </si>
-  <si>
-    <t>20030930</t>
-  </si>
-  <si>
-    <t>20030630</t>
-  </si>
-  <si>
-    <t>20030331</t>
-  </si>
-  <si>
-    <t>20021231</t>
-  </si>
-  <si>
-    <t>20020930</t>
-  </si>
-  <si>
-    <t>20020630</t>
-  </si>
-  <si>
-    <t>20020331</t>
-  </si>
-  <si>
-    <t>20011231</t>
-  </si>
-  <si>
-    <t>20010630</t>
-  </si>
-  <si>
-    <t>20001231</t>
-  </si>
-  <si>
-    <t>20000630</t>
-  </si>
-  <si>
-    <t>19991231</t>
-  </si>
-  <si>
-    <t>19990630</t>
-  </si>
-  <si>
-    <t>19981231</t>
-  </si>
-  <si>
-    <t>19980630</t>
-  </si>
-  <si>
-    <t>19971231</t>
-  </si>
-  <si>
-    <t>19970630</t>
-  </si>
-  <si>
-    <t>19961231</t>
-  </si>
-  <si>
-    <t>19960630</t>
-  </si>
-  <si>
-    <t>19951231</t>
-  </si>
-  <si>
-    <t>19950630</t>
-  </si>
-  <si>
-    <t>19941231</t>
-  </si>
-  <si>
-    <t>19940630</t>
-  </si>
-  <si>
-    <t>19931231</t>
-  </si>
-  <si>
-    <t>19930630</t>
-  </si>
-  <si>
-    <t>19921231</t>
-  </si>
-  <si>
-    <t>流动资产</t>
-  </si>
-  <si>
-    <t>货币资金</t>
-  </si>
-  <si>
-    <t>结算备付金</t>
-  </si>
-  <si>
-    <t>拆出资金</t>
-  </si>
-  <si>
-    <t>交易性金融资产</t>
-  </si>
-  <si>
-    <t>买入返售金融资产</t>
-  </si>
-  <si>
-    <t>衍生金融资产</t>
-  </si>
-  <si>
-    <t>应收票据及应收账款</t>
-  </si>
-  <si>
-    <t>应收票据</t>
-  </si>
-  <si>
-    <t>应收账款</t>
-  </si>
-  <si>
-    <t>应收款项融资</t>
-  </si>
-  <si>
-    <t>预付款项</t>
-  </si>
-  <si>
-    <t>应收股利</t>
-  </si>
-  <si>
-    <t>应收利息</t>
-  </si>
-  <si>
-    <t>应收保费</t>
-  </si>
-  <si>
-    <t>应收分保账款</t>
-  </si>
-  <si>
-    <t>应收分保合同准备金</t>
-  </si>
-  <si>
-    <t>应收出口退税</t>
-  </si>
-  <si>
-    <t>应收补贴款</t>
-  </si>
-  <si>
-    <t>应收保证金</t>
-  </si>
-  <si>
-    <t>内部应收款</t>
-  </si>
-  <si>
-    <t>其他应收款</t>
-  </si>
-  <si>
-    <t>其他应收款(合计)</t>
-  </si>
-  <si>
-    <t>存货</t>
-  </si>
-  <si>
-    <t>划分为持有待售的资产</t>
-  </si>
-  <si>
-    <t>待摊费用</t>
-  </si>
-  <si>
-    <t>待处理流动资产损益</t>
-  </si>
-  <si>
-    <t>一年内到期的非流动资产</t>
-  </si>
-  <si>
-    <t>其他流动资产</t>
-  </si>
-  <si>
-    <t>流动资产合计</t>
-  </si>
-  <si>
-    <t>非流动资产</t>
-  </si>
-  <si>
-    <t>发放贷款及垫款</t>
-  </si>
-  <si>
-    <t>债权投资</t>
-  </si>
-  <si>
-    <t>其他债权投资</t>
-  </si>
-  <si>
-    <t>以公允价值计量且其变动计入其他综合收益的金融资产</t>
-  </si>
-  <si>
-    <t>以摊余成本计量的金融资产</t>
-  </si>
-  <si>
-    <t>可供出售金融资产</t>
-  </si>
-  <si>
-    <t>长期股权投资</t>
-  </si>
-  <si>
-    <t>投资性房地产</t>
-  </si>
-  <si>
-    <t>长期应收款</t>
-  </si>
-  <si>
-    <t>其他权益工具投资</t>
-  </si>
-  <si>
-    <t>其他非流动金融资产</t>
-  </si>
-  <si>
-    <t>其他长期投资</t>
-  </si>
-  <si>
-    <t>固定资产原值</t>
-  </si>
-  <si>
-    <t>累计折旧</t>
-  </si>
-  <si>
-    <t>固定资产净值</t>
-  </si>
-  <si>
-    <t>固定资产减值准备</t>
-  </si>
-  <si>
-    <t>在建工程合计</t>
-  </si>
-  <si>
-    <t>在建工程</t>
-  </si>
-  <si>
-    <t>工程物资</t>
-  </si>
-  <si>
-    <t>固定资产净额</t>
-  </si>
-  <si>
-    <t>固定资产清理</t>
-  </si>
-  <si>
-    <t>固定资产及清理合计</t>
-  </si>
-  <si>
-    <t>生产性生物资产</t>
-  </si>
-  <si>
-    <t>公益性生物资产</t>
-  </si>
-  <si>
-    <t>油气资产</t>
-  </si>
-  <si>
-    <t>合同资产</t>
-  </si>
-  <si>
-    <t>使用权资产</t>
-  </si>
-  <si>
-    <t>无形资产</t>
-  </si>
-  <si>
-    <t>开发支出</t>
-  </si>
-  <si>
-    <t>商誉</t>
-  </si>
-  <si>
-    <t>长期待摊费用</t>
-  </si>
-  <si>
-    <t>股权分置流通权</t>
-  </si>
-  <si>
-    <t>递延所得税资产</t>
-  </si>
-  <si>
-    <t>其他非流动资产</t>
-  </si>
-  <si>
-    <t>非流动资产合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资产总计</t>
-  </si>
-  <si>
-    <t>流动负债</t>
-  </si>
-  <si>
-    <t>短期借款</t>
-  </si>
-  <si>
-    <t>向中央银行借款</t>
-  </si>
-  <si>
-    <t>吸收存款及同业存放</t>
-  </si>
-  <si>
-    <t>拆入资金</t>
-  </si>
-  <si>
-    <t>交易性金融负债</t>
-  </si>
-  <si>
-    <t>衍生金融负债</t>
-  </si>
-  <si>
-    <t>应付票据及应付账款</t>
-  </si>
-  <si>
-    <t>应付票据</t>
-  </si>
-  <si>
-    <t>应付账款</t>
-  </si>
-  <si>
-    <t>预收款项</t>
-  </si>
-  <si>
-    <t>合同负债</t>
-  </si>
-  <si>
-    <t>卖出回购金融资产款</t>
-  </si>
-  <si>
-    <t>应付手续费及佣金</t>
-  </si>
-  <si>
-    <t>应付职工薪酬</t>
-  </si>
-  <si>
-    <t>应交税费</t>
-  </si>
-  <si>
-    <t>应付利息</t>
-  </si>
-  <si>
-    <t>应付股利</t>
-  </si>
-  <si>
-    <t>应付保证金</t>
-  </si>
-  <si>
-    <t>内部应付款</t>
-  </si>
-  <si>
-    <t>其他应付款</t>
-  </si>
-  <si>
-    <t>其他应付款合计</t>
-  </si>
-  <si>
-    <t>其他应交款</t>
-  </si>
-  <si>
-    <t>担保责任赔偿准备金</t>
-  </si>
-  <si>
-    <t>应付分保账款</t>
-  </si>
-  <si>
-    <t>保险合同准备金</t>
-  </si>
-  <si>
-    <t>代理买卖证券款</t>
-  </si>
-  <si>
-    <t>代理承销证券款</t>
-  </si>
-  <si>
-    <t>国际票证结算</t>
-  </si>
-  <si>
-    <t>国内票证结算</t>
-  </si>
-  <si>
-    <t>预提费用</t>
-  </si>
-  <si>
-    <t>预计流动负债</t>
-  </si>
-  <si>
-    <t>应付短期债券</t>
-  </si>
-  <si>
-    <t>划分为持有待售的负债</t>
-  </si>
-  <si>
-    <t>一年内的递延收益</t>
-  </si>
-  <si>
-    <t>一年内到期的非流动负债</t>
-  </si>
-  <si>
-    <t>其他流动负债</t>
-  </si>
-  <si>
-    <t>流动负债合计</t>
-  </si>
-  <si>
-    <t>非流动负债</t>
-  </si>
-  <si>
-    <t>长期借款</t>
-  </si>
-  <si>
-    <t>应付债券</t>
-  </si>
-  <si>
-    <t>应付债券：优先股</t>
-  </si>
-  <si>
-    <t>应付债券：永续债</t>
-  </si>
-  <si>
-    <t>租赁负债</t>
-  </si>
-  <si>
-    <t>长期应付职工薪酬</t>
-  </si>
-  <si>
-    <t>长期应付款</t>
-  </si>
-  <si>
-    <t>长期应付款合计</t>
-  </si>
-  <si>
-    <t>专项应付款</t>
-  </si>
-  <si>
-    <t>预计非流动负债</t>
-  </si>
-  <si>
-    <t>长期递延收益</t>
-  </si>
-  <si>
-    <t>递延所得税负债</t>
-  </si>
-  <si>
-    <t>其他非流动负债</t>
-  </si>
-  <si>
-    <t>非流动负债合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>负债合计</t>
-  </si>
-  <si>
-    <t>所有者权益</t>
-  </si>
-  <si>
-    <t>实收资本(或股本)</t>
-  </si>
-  <si>
-    <t>其他权益工具</t>
-  </si>
-  <si>
-    <t>优先股</t>
-  </si>
-  <si>
-    <t>永续债</t>
-  </si>
-  <si>
-    <t>资本公积</t>
-  </si>
-  <si>
-    <t>减:库存股</t>
-  </si>
-  <si>
-    <t>其他综合收益</t>
-  </si>
-  <si>
-    <t>专项储备</t>
-  </si>
-  <si>
-    <t>盈余公积</t>
-  </si>
-  <si>
-    <t>一般风险准备</t>
-  </si>
-  <si>
-    <t>未确定的投资损失</t>
-  </si>
-  <si>
-    <t>未分配利润</t>
-  </si>
-  <si>
-    <t>拟分配现金股利</t>
-  </si>
-  <si>
-    <t>外币报表折算差额</t>
-  </si>
-  <si>
-    <t>归属于母公司股东权益合计</t>
-  </si>
-  <si>
-    <t>少数股东权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有者权益(或股东权益)合计</t>
-  </si>
-  <si>
-    <t>负债和所有者权益(或股东权益)总计</t>
-  </si>
-  <si>
-    <t>数据源</t>
-  </si>
-  <si>
-    <t>定期报告</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>是否审计</t>
-  </si>
-  <si>
-    <t>未审计</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>公告日期</t>
-  </si>
-  <si>
-    <t>20250429</t>
-  </si>
-  <si>
-    <t>20241030</t>
-  </si>
-  <si>
-    <t>20240830</t>
-  </si>
-  <si>
-    <t>20240430</t>
-  </si>
-  <si>
-    <t>20231028</t>
-  </si>
-  <si>
-    <t>20230828</t>
-  </si>
-  <si>
-    <t>20230425</t>
-  </si>
-  <si>
-    <t>20240327</t>
-  </si>
-  <si>
-    <t>20221027</t>
-  </si>
-  <si>
-    <t>20220826</t>
-  </si>
-  <si>
-    <t>20220429</t>
-  </si>
-  <si>
-    <t>20230323</t>
-  </si>
-  <si>
-    <t>20211029</t>
-  </si>
-  <si>
-    <t>20210826</t>
-  </si>
-  <si>
-    <t>20210423</t>
-  </si>
-  <si>
-    <t>20220329</t>
-  </si>
-  <si>
-    <t>20201030</t>
-  </si>
-  <si>
-    <t>20200831</t>
-  </si>
-  <si>
-    <t>20200430</t>
-  </si>
-  <si>
-    <t>20210329</t>
-  </si>
-  <si>
-    <t>20191029</t>
-  </si>
-  <si>
-    <t>20190816</t>
-  </si>
-  <si>
-    <t>20190430</t>
-  </si>
-  <si>
-    <t>20200330</t>
-  </si>
-  <si>
-    <t>20181029</t>
-  </si>
-  <si>
-    <t>20180829</t>
-  </si>
-  <si>
-    <t>20180427</t>
-  </si>
-  <si>
-    <t>20190329</t>
-  </si>
-  <si>
-    <t>20171031</t>
-  </si>
-  <si>
-    <t>20170831</t>
-  </si>
-  <si>
-    <t>20170428</t>
-  </si>
-  <si>
-    <t>20180328</t>
-  </si>
-  <si>
-    <t>20161031</t>
-  </si>
-  <si>
-    <t>20160831</t>
-  </si>
-  <si>
-    <t>20160426</t>
-  </si>
-  <si>
-    <t>20151028</t>
-  </si>
-  <si>
-    <t>20150831</t>
-  </si>
-  <si>
-    <t>20150430</t>
-  </si>
-  <si>
-    <t>20160329</t>
-  </si>
-  <si>
-    <t>20141031</t>
-  </si>
-  <si>
-    <t>20140829</t>
-  </si>
-  <si>
-    <t>20140430</t>
-  </si>
-  <si>
-    <t>20131031</t>
-  </si>
-  <si>
-    <t>20130830</t>
-  </si>
-  <si>
-    <t>20130427</t>
-  </si>
-  <si>
-    <t>20140326</t>
-  </si>
-  <si>
-    <t>20121031</t>
-  </si>
-  <si>
-    <t>20120816</t>
-  </si>
-  <si>
-    <t>20120427</t>
-  </si>
-  <si>
-    <t>20130328</t>
-  </si>
-  <si>
-    <t>20111028</t>
-  </si>
-  <si>
-    <t>20110815</t>
-  </si>
-  <si>
-    <t>20110429</t>
-  </si>
-  <si>
-    <t>20120330</t>
-  </si>
-  <si>
-    <t>20101020</t>
-  </si>
-  <si>
-    <t>20100816</t>
-  </si>
-  <si>
-    <t>20100430</t>
-  </si>
-  <si>
-    <t>20091030</t>
-  </si>
-  <si>
-    <t>20090807</t>
-  </si>
-  <si>
-    <t>20090430</t>
-  </si>
-  <si>
-    <t>20100409</t>
-  </si>
-  <si>
-    <t>20081029</t>
-  </si>
-  <si>
-    <t>20080820</t>
-  </si>
-  <si>
-    <t>20080430</t>
-  </si>
-  <si>
-    <t>20090409</t>
-  </si>
-  <si>
-    <t>20071024</t>
-  </si>
-  <si>
-    <t>20070828</t>
-  </si>
-  <si>
-    <t>20070430</t>
-  </si>
-  <si>
-    <t>20080422</t>
-  </si>
-  <si>
-    <t>20061031</t>
-  </si>
-  <si>
-    <t>20060829</t>
-  </si>
-  <si>
-    <t>20060428</t>
-  </si>
-  <si>
-    <t>20070420</t>
-  </si>
-  <si>
-    <t>20051028</t>
-  </si>
-  <si>
-    <t>20050822</t>
-  </si>
-  <si>
-    <t>20050429</t>
-  </si>
-  <si>
-    <t>20060404</t>
-  </si>
-  <si>
-    <t>20041027</t>
-  </si>
-  <si>
-    <t>20040812</t>
-  </si>
-  <si>
-    <t>20040430</t>
-  </si>
-  <si>
-    <t>20050412</t>
-  </si>
-  <si>
-    <t>20031029</t>
-  </si>
-  <si>
-    <t>20030814</t>
-  </si>
-  <si>
-    <t>20030430</t>
-  </si>
-  <si>
-    <t>20040402</t>
-  </si>
-  <si>
-    <t>20021030</t>
-  </si>
-  <si>
-    <t>20020814</t>
-  </si>
-  <si>
-    <t>20020430</t>
-  </si>
-  <si>
-    <t>20020404</t>
-  </si>
-  <si>
-    <t>20010830</t>
-  </si>
-  <si>
-    <t>20010419</t>
-  </si>
-  <si>
-    <t>20000831</t>
-  </si>
-  <si>
-    <t>20000418</t>
-  </si>
-  <si>
-    <t>19990824</t>
-  </si>
-  <si>
-    <t>19990422</t>
-  </si>
-  <si>
-    <t>19980828</t>
-  </si>
-  <si>
-    <t>19980421</t>
-  </si>
-  <si>
-    <t>19970827</t>
-  </si>
-  <si>
-    <t>19970425</t>
-  </si>
-  <si>
-    <t>19960823</t>
-  </si>
-  <si>
-    <t>19960417</t>
-  </si>
-  <si>
-    <t>19950829</t>
-  </si>
-  <si>
-    <t>19950426</t>
-  </si>
-  <si>
-    <t>19940818</t>
-  </si>
-  <si>
-    <t>19940428</t>
-  </si>
-  <si>
-    <t>19930824</t>
-  </si>
-  <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>合并期末</t>
-  </si>
-  <si>
-    <t>更新日期</t>
-  </si>
-  <si>
-    <t>2025-04-28T20:02:03</t>
-  </si>
-  <si>
-    <t>2025-03-31T08:25:36</t>
-  </si>
-  <si>
-    <t>2024-10-29T16:45:05</t>
-  </si>
-  <si>
-    <t>2024-08-29T19:50:07</t>
-  </si>
-  <si>
-    <t>2024-04-29T17:15:04</t>
-  </si>
-  <si>
-    <t>2024-03-26T21:20:04</t>
-  </si>
-  <si>
-    <t>2023-10-27T17:35:34</t>
-  </si>
-  <si>
-    <t>2023-08-27T19:30:05</t>
-  </si>
-  <si>
-    <t>2023-04-24T18:05:05</t>
-  </si>
-  <si>
-    <t>2023-03-22T20:50:09</t>
-  </si>
-  <si>
-    <t>2022-10-26T17:20:07</t>
-  </si>
-  <si>
-    <t>2022-08-25T21:25:04</t>
-  </si>
-  <si>
-    <t>2022-04-28T16:20:04</t>
-  </si>
-  <si>
-    <t>2022-03-29T01:05:06</t>
-  </si>
-  <si>
-    <t>2021-10-28T17:50:06</t>
-  </si>
-  <si>
-    <t>2021-08-25T22:00:03</t>
-  </si>
-  <si>
-    <t>2021-04-22T16:30:03</t>
-  </si>
-  <si>
-    <t>2020-10-29T16:28:08</t>
-  </si>
-  <si>
-    <t>2020-08-30T22:05:03</t>
-  </si>
-  <si>
-    <t>2020-04-29T21:50:02</t>
-  </si>
-  <si>
-    <t>2020-03-29T17:40:03</t>
-  </si>
-  <si>
-    <t>2020-03-13T15:29:48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1578,11 +1582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.76171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:113" x14ac:dyDescent="0.4">
@@ -1925,353 +1932,353 @@
     </row>
     <row r="2" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CK2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CR2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CS2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CT2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CV2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CW2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CX2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DB2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DC2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DD2" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DE2" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>111</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>16295533617</v>
@@ -2600,17 +2607,17 @@
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>4951523501</v>
@@ -2765,17 +2772,17 @@
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>120754738</v>
@@ -3101,7 +3108,7 @@
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>24400000</v>
@@ -3409,7 +3416,7 @@
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>120754738</v>
@@ -3732,12 +3739,12 @@
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14">
         <v>242499700</v>
@@ -4063,7 +4070,7 @@
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>33842175</v>
@@ -4110,7 +4117,7 @@
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z16">
         <v>225986508</v>
@@ -4202,27 +4209,27 @@
     </row>
     <row r="17" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CN21">
         <v>695000</v>
@@ -4257,17 +4264,17 @@
     </row>
     <row r="22" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24">
         <v>131478198</v>
@@ -4515,7 +4522,7 @@
     </row>
     <row r="25" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>125606446</v>
@@ -4838,7 +4845,7 @@
     </row>
     <row r="26" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>2272493011</v>
@@ -5167,12 +5174,12 @@
     </row>
     <row r="27" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BW28">
         <v>1040567</v>
@@ -5273,7 +5280,7 @@
     </row>
     <row r="29" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DH29">
         <v>1387739</v>
@@ -5281,7 +5288,7 @@
     </row>
     <row r="30" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30">
         <v>123382251</v>
@@ -5313,7 +5320,7 @@
     </row>
     <row r="31" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31">
         <v>523230532</v>
@@ -5525,7 +5532,7 @@
     </row>
     <row r="32" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32">
         <v>24655023796</v>
@@ -5866,17 +5873,17 @@
     </row>
     <row r="33" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CF35">
         <v>17500</v>
@@ -5929,22 +5936,22 @@
     </row>
     <row r="36" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD39">
         <v>600000</v>
@@ -6018,7 +6025,7 @@
     </row>
     <row r="40" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B40">
         <v>358590203</v>
@@ -6356,7 +6363,7 @@
     </row>
     <row r="41" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41">
         <v>41199116</v>
@@ -6517,7 +6524,7 @@
     </row>
     <row r="42" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AV42">
         <v>10000000</v>
@@ -6633,12 +6640,12 @@
     </row>
     <row r="43" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44">
         <v>2274515550</v>
@@ -6727,12 +6734,12 @@
     </row>
     <row r="45" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46">
         <v>22914868477</v>
@@ -6947,7 +6954,7 @@
     </row>
     <row r="47" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47">
         <v>10570029150</v>
@@ -7162,7 +7169,7 @@
     </row>
     <row r="48" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48">
         <v>12344839327</v>
@@ -7392,7 +7399,7 @@
     </row>
     <row r="49" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49">
         <v>540634666</v>
@@ -7571,7 +7578,7 @@
     </row>
     <row r="50" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>820662726</v>
@@ -7912,7 +7919,7 @@
     </row>
     <row r="51" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB51">
         <v>349425120</v>
@@ -8172,7 +8179,7 @@
     </row>
     <row r="52" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CF52">
         <v>43592165</v>
@@ -8186,7 +8193,7 @@
     </row>
     <row r="53" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>11804204661</v>
@@ -8488,7 +8495,7 @@
     </row>
     <row r="54" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54">
         <v>13445973</v>
@@ -8760,7 +8767,7 @@
     </row>
     <row r="55" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55">
         <v>11729179652</v>
@@ -9101,27 +9108,27 @@
     </row>
     <row r="56" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60">
         <v>111324667</v>
@@ -9201,7 +9208,7 @@
     </row>
     <row r="61" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61">
         <v>2648560254</v>
@@ -9530,12 +9537,12 @@
     </row>
     <row r="62" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63">
         <v>1307103982</v>
@@ -9762,7 +9769,7 @@
     </row>
     <row r="64" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64">
         <v>74150937</v>
@@ -10070,12 +10077,12 @@
     </row>
     <row r="65" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B66">
         <v>2054380059</v>
@@ -10359,7 +10366,7 @@
     </row>
     <row r="67" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67">
         <v>5216461743</v>
@@ -10583,7 +10590,7 @@
     </row>
     <row r="68" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68">
         <v>26636128889</v>
@@ -10924,7 +10931,7 @@
     </row>
     <row r="69" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
       <c r="B69">
         <v>51291152685</v>
@@ -11265,12 +11272,12 @@
     </row>
     <row r="70" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J71">
         <v>221057001</v>
@@ -11575,22 +11582,22 @@
     </row>
     <row r="72" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BQ75">
         <v>20300000</v>
@@ -11616,12 +11623,12 @@
     </row>
     <row r="76" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77">
         <v>4120622118</v>
@@ -11947,7 +11954,7 @@
     </row>
     <row r="78" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B78">
         <v>275356472</v>
@@ -12255,7 +12262,7 @@
     </row>
     <row r="79" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B79">
         <v>3845265646</v>
@@ -12572,7 +12579,7 @@
     </row>
     <row r="80" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD80">
         <v>1023936197</v>
@@ -12814,7 +12821,7 @@
     </row>
     <row r="81" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B81">
         <v>5659574089</v>
@@ -12903,17 +12910,17 @@
     </row>
     <row r="82" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B84">
         <v>1672832312</v>
@@ -13239,7 +13246,7 @@
     </row>
     <row r="85" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B85">
         <v>707923576</v>
@@ -13565,7 +13572,7 @@
     </row>
     <row r="86" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z86">
         <v>1453498</v>
@@ -13654,7 +13661,7 @@
     </row>
     <row r="87" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B87">
         <v>41150800</v>
@@ -13836,17 +13843,17 @@
     </row>
     <row r="88" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C90">
         <v>3268799751</v>
@@ -14103,7 +14110,7 @@
     </row>
     <row r="91" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B91">
         <v>3379410139</v>
@@ -14432,7 +14439,7 @@
     </row>
     <row r="92" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BW92">
         <v>6537235</v>
@@ -14524,42 +14531,42 @@
     </row>
     <row r="93" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A99" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BW100">
         <v>439865702</v>
@@ -14657,7 +14664,7 @@
     </row>
     <row r="101" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CB101">
         <v>27000000</v>
@@ -14680,7 +14687,7 @@
     </row>
     <row r="102" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="CD102">
         <v>5907185</v>
@@ -14703,17 +14710,17 @@
     </row>
     <row r="103" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>39402193</v>
@@ -15039,7 +15046,7 @@
     </row>
     <row r="106" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>151754590</v>
@@ -15149,7 +15156,7 @@
     </row>
     <row r="107" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B107">
         <v>15731519017</v>
@@ -15490,12 +15497,12 @@
     </row>
     <row r="108" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W109">
         <v>209180</v>
@@ -15761,7 +15768,7 @@
     </row>
     <row r="110" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AV110">
         <v>1465631264</v>
@@ -15856,17 +15863,17 @@
     </row>
     <row r="111" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B113">
         <v>65801713</v>
@@ -15946,7 +15953,7 @@
     </row>
     <row r="114" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B114">
         <v>729687852</v>
@@ -16080,7 +16087,7 @@
     </row>
     <row r="115" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB115">
         <v>259930142</v>
@@ -16220,7 +16227,7 @@
     </row>
     <row r="116" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B116">
         <v>16061954</v>
@@ -16504,7 +16511,7 @@
     </row>
     <row r="117" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C117">
         <v>16090646</v>
@@ -16686,12 +16693,12 @@
     </row>
     <row r="118" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B119">
         <v>2940168168</v>
@@ -16849,7 +16856,7 @@
     </row>
     <row r="120" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B120">
         <v>250250646</v>
@@ -17076,7 +17083,7 @@
     </row>
     <row r="121" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AR121">
         <v>446399428</v>
@@ -17195,7 +17202,7 @@
     </row>
     <row r="122" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B122">
         <v>4001970333</v>
@@ -17536,7 +17543,7 @@
     </row>
     <row r="123" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
-        <v>233</v>
+        <v>391</v>
       </c>
       <c r="B123">
         <v>19733489350</v>
@@ -17877,12 +17884,12 @@
     </row>
     <row r="124" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B125">
         <v>1364196788</v>
@@ -18220,22 +18227,22 @@
     </row>
     <row r="126" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B129">
         <v>4198355615</v>
@@ -18573,7 +18580,7 @@
     </row>
     <row r="130" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B130">
         <v>1501239</v>
@@ -18635,7 +18642,7 @@
     </row>
     <row r="131" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B131">
         <v>-153558725</v>
@@ -18775,12 +18782,12 @@
     </row>
     <row r="132" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B133">
         <v>1400704380</v>
@@ -19115,7 +19122,7 @@
     </row>
     <row r="134" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B134">
         <v>301761292</v>
@@ -19249,12 +19256,12 @@
     </row>
     <row r="135" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B136">
         <v>23661010761</v>
@@ -19592,12 +19599,12 @@
     </row>
     <row r="137" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AT138">
         <v>24364955</v>
@@ -19761,7 +19768,7 @@
     </row>
     <row r="139" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B139">
         <v>30770968872</v>
@@ -20099,7 +20106,7 @@
     </row>
     <row r="140" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B140">
         <v>786694463</v>
@@ -20419,7 +20426,7 @@
     </row>
     <row r="141" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="B141">
         <v>31557663335</v>
@@ -20757,7 +20764,7 @@
     </row>
     <row r="142" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B142">
         <v>51291152685</v>
@@ -21098,2048 +21105,2048 @@
     </row>
     <row r="143" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="R143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="S143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="W143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Z143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AA143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AB143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AD143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AE143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AH143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AI143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AJ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AK143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AL143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AN143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AP143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AQ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AR143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AS143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AT143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AU143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AV143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AW143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AX143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AY143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AZ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BA143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BB143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BC143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BD143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BE143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BF143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BG143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BH143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BI143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BJ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BK143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BL143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BM143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BN143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BO143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BP143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BQ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BR143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BS143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BT143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BU143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BV143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BW143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BX143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BY143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BZ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CA143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CB143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CC143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CD143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CE143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CF143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CG143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CH143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CI143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CJ143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CK143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CL143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CM143" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CN143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CO143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CP143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CQ143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CR143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CS143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CT143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CU143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CV143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CW143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CX143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CY143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="CZ143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DA143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DB143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DC143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DD143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DE143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DF143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DG143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DH143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DI143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A144" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="S144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="U144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="W144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Z144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AA144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AB144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AC144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AD144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AE144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AG144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AH144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AI144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AJ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AK144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AL144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AN144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AO144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AP144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AQ144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AR144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AS144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AT144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AU144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AV144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AW144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AX144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AY144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AZ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BA144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BB144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BC144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BD144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BE144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BF144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BG144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BH144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BI144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BJ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BK144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BL144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BM144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BN144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BO144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BP144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BQ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BR144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BS144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BT144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BU144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BV144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BW144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="BX144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BY144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BZ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CA144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CB144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CC144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CD144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CE144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CF144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CG144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CH144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CI144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CJ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CK144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CL144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CM144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CN144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CO144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CP144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CQ144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CR144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CS144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CT144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CU144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CV144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CW144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CX144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="CY144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CZ144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DA144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="DB144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DC144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DD144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DE144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DF144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DG144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DH144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="DI144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E145" t="s">
+        <v>258</v>
+      </c>
+      <c r="F145" t="s">
         <v>259</v>
       </c>
-      <c r="B145" t="s">
+      <c r="G145" t="s">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
         <v>260</v>
       </c>
-      <c r="C145" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="I145" t="s">
         <v>261</v>
       </c>
-      <c r="E145" t="s">
+      <c r="J145" t="s">
         <v>262</v>
       </c>
-      <c r="F145" t="s">
+      <c r="K145" t="s">
         <v>263</v>
       </c>
-      <c r="G145" t="s">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="L145" t="s">
         <v>264</v>
       </c>
-      <c r="I145" t="s">
+      <c r="M145" t="s">
         <v>265</v>
       </c>
-      <c r="J145" t="s">
+      <c r="N145" t="s">
         <v>266</v>
       </c>
-      <c r="K145" t="s">
+      <c r="O145" t="s">
         <v>267</v>
       </c>
-      <c r="L145" t="s">
+      <c r="P145" t="s">
         <v>268</v>
       </c>
-      <c r="M145" t="s">
+      <c r="Q145" t="s">
         <v>269</v>
       </c>
-      <c r="N145" t="s">
+      <c r="R145" t="s">
         <v>270</v>
       </c>
-      <c r="O145" t="s">
+      <c r="S145" t="s">
         <v>271</v>
       </c>
-      <c r="P145" t="s">
+      <c r="T145" t="s">
         <v>272</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="U145" t="s">
         <v>273</v>
       </c>
-      <c r="R145" t="s">
+      <c r="V145" t="s">
         <v>274</v>
       </c>
-      <c r="S145" t="s">
+      <c r="W145" t="s">
         <v>275</v>
       </c>
-      <c r="T145" t="s">
+      <c r="X145" t="s">
         <v>276</v>
       </c>
-      <c r="U145" t="s">
+      <c r="Y145" t="s">
         <v>277</v>
       </c>
-      <c r="V145" t="s">
+      <c r="Z145" t="s">
         <v>278</v>
       </c>
-      <c r="W145" t="s">
+      <c r="AA145" t="s">
         <v>279</v>
       </c>
-      <c r="X145" t="s">
+      <c r="AB145" t="s">
         <v>280</v>
       </c>
-      <c r="Y145" t="s">
+      <c r="AC145" t="s">
         <v>281</v>
       </c>
-      <c r="Z145" t="s">
+      <c r="AD145" t="s">
         <v>282</v>
       </c>
-      <c r="AA145" t="s">
+      <c r="AE145" t="s">
         <v>283</v>
       </c>
-      <c r="AB145" t="s">
+      <c r="AF145" t="s">
         <v>284</v>
       </c>
-      <c r="AC145" t="s">
+      <c r="AG145" t="s">
         <v>285</v>
       </c>
-      <c r="AD145" t="s">
+      <c r="AH145" t="s">
         <v>286</v>
       </c>
-      <c r="AE145" t="s">
+      <c r="AI145" t="s">
         <v>287</v>
       </c>
-      <c r="AF145" t="s">
+      <c r="AJ145" t="s">
         <v>288</v>
       </c>
-      <c r="AG145" t="s">
+      <c r="AK145" t="s">
         <v>289</v>
       </c>
-      <c r="AH145" t="s">
+      <c r="AL145" t="s">
         <v>290</v>
       </c>
-      <c r="AI145" t="s">
+      <c r="AM145" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN145" t="s">
         <v>291</v>
       </c>
-      <c r="AJ145" t="s">
+      <c r="AO145" t="s">
         <v>292</v>
       </c>
-      <c r="AK145" t="s">
+      <c r="AP145" t="s">
         <v>293</v>
       </c>
-      <c r="AL145" t="s">
+      <c r="AQ145" t="s">
         <v>294</v>
       </c>
-      <c r="AM145" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN145" t="s">
+      <c r="AR145" t="s">
         <v>295</v>
       </c>
-      <c r="AO145" t="s">
+      <c r="AS145" t="s">
         <v>296</v>
       </c>
-      <c r="AP145" t="s">
+      <c r="AT145" t="s">
         <v>297</v>
       </c>
-      <c r="AQ145" t="s">
+      <c r="AU145" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV145" t="s">
         <v>298</v>
       </c>
-      <c r="AR145" t="s">
+      <c r="AW145" t="s">
         <v>299</v>
       </c>
-      <c r="AS145" t="s">
+      <c r="AX145" t="s">
         <v>300</v>
       </c>
-      <c r="AT145" t="s">
+      <c r="AY145" t="s">
         <v>301</v>
       </c>
-      <c r="AU145" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV145" t="s">
+      <c r="AZ145" t="s">
         <v>302</v>
       </c>
-      <c r="AW145" t="s">
+      <c r="BA145" t="s">
         <v>303</v>
       </c>
-      <c r="AX145" t="s">
+      <c r="BB145" t="s">
         <v>304</v>
       </c>
-      <c r="AY145" t="s">
+      <c r="BC145" t="s">
         <v>305</v>
       </c>
-      <c r="AZ145" t="s">
+      <c r="BD145" t="s">
         <v>306</v>
       </c>
-      <c r="BA145" t="s">
+      <c r="BE145" t="s">
         <v>307</v>
       </c>
-      <c r="BB145" t="s">
+      <c r="BF145" t="s">
         <v>308</v>
       </c>
-      <c r="BC145" t="s">
+      <c r="BG145" t="s">
         <v>309</v>
       </c>
-      <c r="BD145" t="s">
+      <c r="BH145" t="s">
         <v>310</v>
       </c>
-      <c r="BE145" t="s">
+      <c r="BI145" t="s">
         <v>311</v>
       </c>
-      <c r="BF145" t="s">
+      <c r="BJ145" t="s">
         <v>312</v>
       </c>
-      <c r="BG145" t="s">
+      <c r="BK145" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL145" t="s">
         <v>313</v>
       </c>
-      <c r="BH145" t="s">
+      <c r="BM145" t="s">
         <v>314</v>
       </c>
-      <c r="BI145" t="s">
+      <c r="BN145" t="s">
         <v>315</v>
       </c>
-      <c r="BJ145" t="s">
+      <c r="BO145" t="s">
         <v>316</v>
       </c>
-      <c r="BK145" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL145" t="s">
+      <c r="BP145" t="s">
         <v>317</v>
       </c>
-      <c r="BM145" t="s">
+      <c r="BQ145" t="s">
         <v>318</v>
       </c>
-      <c r="BN145" t="s">
+      <c r="BR145" t="s">
         <v>319</v>
       </c>
-      <c r="BO145" t="s">
+      <c r="BS145" t="s">
         <v>320</v>
       </c>
-      <c r="BP145" t="s">
+      <c r="BT145" t="s">
         <v>321</v>
       </c>
-      <c r="BQ145" t="s">
+      <c r="BU145" t="s">
         <v>322</v>
       </c>
-      <c r="BR145" t="s">
+      <c r="BV145" t="s">
         <v>323</v>
       </c>
-      <c r="BS145" t="s">
+      <c r="BW145" t="s">
         <v>324</v>
       </c>
-      <c r="BT145" t="s">
+      <c r="BX145" t="s">
         <v>325</v>
       </c>
-      <c r="BU145" t="s">
+      <c r="BY145" t="s">
         <v>326</v>
       </c>
-      <c r="BV145" t="s">
+      <c r="BZ145" t="s">
         <v>327</v>
       </c>
-      <c r="BW145" t="s">
+      <c r="CA145" t="s">
         <v>328</v>
       </c>
-      <c r="BX145" t="s">
+      <c r="CB145" t="s">
         <v>329</v>
       </c>
-      <c r="BY145" t="s">
+      <c r="CC145" t="s">
         <v>330</v>
       </c>
-      <c r="BZ145" t="s">
+      <c r="CD145" t="s">
         <v>331</v>
       </c>
-      <c r="CA145" t="s">
+      <c r="CE145" t="s">
         <v>332</v>
       </c>
-      <c r="CB145" t="s">
+      <c r="CF145" t="s">
         <v>333</v>
       </c>
-      <c r="CC145" t="s">
+      <c r="CG145" t="s">
         <v>334</v>
       </c>
-      <c r="CD145" t="s">
+      <c r="CH145" t="s">
         <v>335</v>
       </c>
-      <c r="CE145" t="s">
+      <c r="CI145" t="s">
         <v>336</v>
       </c>
-      <c r="CF145" t="s">
+      <c r="CJ145" t="s">
         <v>337</v>
       </c>
-      <c r="CG145" t="s">
+      <c r="CK145" t="s">
         <v>338</v>
       </c>
-      <c r="CH145" t="s">
+      <c r="CL145" t="s">
         <v>339</v>
       </c>
-      <c r="CI145" t="s">
+      <c r="CM145" t="s">
         <v>340</v>
       </c>
-      <c r="CJ145" t="s">
+      <c r="CN145" t="s">
         <v>341</v>
       </c>
-      <c r="CK145" t="s">
+      <c r="CO145" t="s">
         <v>342</v>
       </c>
-      <c r="CL145" t="s">
+      <c r="CP145" t="s">
         <v>343</v>
       </c>
-      <c r="CM145" t="s">
+      <c r="CQ145" t="s">
         <v>344</v>
       </c>
-      <c r="CN145" t="s">
+      <c r="CR145" t="s">
         <v>345</v>
       </c>
-      <c r="CO145" t="s">
+      <c r="CS145" t="s">
         <v>346</v>
       </c>
-      <c r="CP145" t="s">
+      <c r="CT145" t="s">
         <v>347</v>
       </c>
-      <c r="CQ145" t="s">
+      <c r="CU145" t="s">
         <v>348</v>
       </c>
-      <c r="CR145" t="s">
+      <c r="CV145" t="s">
         <v>349</v>
       </c>
-      <c r="CS145" t="s">
+      <c r="CW145" t="s">
         <v>350</v>
       </c>
-      <c r="CT145" t="s">
+      <c r="CX145" t="s">
         <v>351</v>
       </c>
-      <c r="CU145" t="s">
+      <c r="CY145" t="s">
         <v>352</v>
       </c>
-      <c r="CV145" t="s">
+      <c r="CZ145" t="s">
         <v>353</v>
       </c>
-      <c r="CW145" t="s">
+      <c r="DA145" t="s">
         <v>354</v>
       </c>
-      <c r="CX145" t="s">
+      <c r="DB145" t="s">
         <v>355</v>
       </c>
-      <c r="CY145" t="s">
+      <c r="DC145" t="s">
         <v>356</v>
       </c>
-      <c r="CZ145" t="s">
+      <c r="DD145" t="s">
         <v>357</v>
       </c>
-      <c r="DA145" t="s">
+      <c r="DE145" t="s">
         <v>358</v>
       </c>
-      <c r="DB145" t="s">
+      <c r="DF145" t="s">
         <v>359</v>
       </c>
-      <c r="DC145" t="s">
+      <c r="DG145" t="s">
         <v>360</v>
       </c>
-      <c r="DD145" t="s">
+      <c r="DH145" t="s">
         <v>361</v>
       </c>
-      <c r="DE145" t="s">
-        <v>362</v>
-      </c>
-      <c r="DF145" t="s">
-        <v>363</v>
-      </c>
-      <c r="DG145" t="s">
-        <v>364</v>
-      </c>
-      <c r="DH145" t="s">
-        <v>365</v>
-      </c>
       <c r="DI145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A146" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="S146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="T146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="U146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="V146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="W146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="X146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Y146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AA146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AB146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AC146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AD146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AE146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AF146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AH146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AI146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AJ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AK146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AL146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AM146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AN146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AO146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AP146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AQ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AR146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AS146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AT146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AU146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AV146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AW146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AX146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AY146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AZ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BA146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BB146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BC146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BD146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BE146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BF146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BG146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BH146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BI146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BJ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BK146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BL146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BM146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BN146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BO146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BP146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BQ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BR146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BS146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BT146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BU146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BV146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BW146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BX146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BY146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="BZ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CA146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CB146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CC146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CD146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CE146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CF146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CG146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CH146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CI146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CJ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CK146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CL146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CM146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CN146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CO146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CP146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CQ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CR146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CS146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CT146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CU146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CV146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CW146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CX146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CY146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="CZ146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DA146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DB146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DC146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DD146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DE146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DF146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DG146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DH146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="DI146" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="T147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="V147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="W147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="X147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Y147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Z147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AA147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AB147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AC147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AD147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AE147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AG147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AH147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AI147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AJ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AL147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AM147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AN147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AP147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AQ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AR147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AS147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AT147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AU147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AV147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AW147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AX147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AY147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AZ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BA147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BB147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BC147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BD147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BE147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BF147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BG147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BH147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BI147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BJ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BK147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BL147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BM147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BN147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BO147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BP147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BQ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BR147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BS147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BT147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BU147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BV147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BW147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BX147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BY147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="BZ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CA147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CB147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CC147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CD147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CE147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CF147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CG147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CH147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CI147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CJ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CK147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CL147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CM147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CN147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CO147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CP147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CQ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CR147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CS147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CT147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CU147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CV147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CW147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CX147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CY147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="CZ147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DA147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DB147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DC147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DD147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DE147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DF147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DG147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DH147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="DI147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:113" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" t="s">
+        <v>367</v>
+      </c>
+      <c r="C148" t="s">
+        <v>368</v>
+      </c>
+      <c r="D148" t="s">
+        <v>369</v>
+      </c>
+      <c r="E148" t="s">
         <v>370</v>
       </c>
-      <c r="B148" t="s">
+      <c r="F148" t="s">
         <v>371</v>
       </c>
-      <c r="C148" t="s">
+      <c r="G148" t="s">
         <v>372</v>
       </c>
-      <c r="D148" t="s">
+      <c r="H148" t="s">
         <v>373</v>
       </c>
-      <c r="E148" t="s">
+      <c r="I148" t="s">
         <v>374</v>
       </c>
-      <c r="F148" t="s">
+      <c r="J148" t="s">
         <v>375</v>
       </c>
-      <c r="G148" t="s">
+      <c r="K148" t="s">
         <v>376</v>
       </c>
-      <c r="H148" t="s">
+      <c r="L148" t="s">
         <v>377</v>
       </c>
-      <c r="I148" t="s">
+      <c r="M148" t="s">
         <v>378</v>
       </c>
-      <c r="J148" t="s">
+      <c r="N148" t="s">
         <v>379</v>
       </c>
-      <c r="K148" t="s">
+      <c r="O148" t="s">
         <v>380</v>
       </c>
-      <c r="L148" t="s">
+      <c r="P148" t="s">
         <v>381</v>
       </c>
-      <c r="M148" t="s">
+      <c r="Q148" t="s">
         <v>382</v>
       </c>
-      <c r="N148" t="s">
+      <c r="R148" t="s">
         <v>383</v>
       </c>
-      <c r="O148" t="s">
+      <c r="S148" t="s">
+        <v>383</v>
+      </c>
+      <c r="T148" t="s">
         <v>384</v>
       </c>
-      <c r="P148" t="s">
+      <c r="U148" t="s">
         <v>385</v>
       </c>
-      <c r="Q148" t="s">
+      <c r="V148" t="s">
         <v>386</v>
       </c>
-      <c r="R148" t="s">
+      <c r="W148" t="s">
         <v>387</v>
       </c>
-      <c r="S148" t="s">
-        <v>387</v>
-      </c>
-      <c r="T148" t="s">
+      <c r="X148" t="s">
         <v>388</v>
       </c>
-      <c r="U148" t="s">
-        <v>389</v>
-      </c>
-      <c r="V148" t="s">
-        <v>390</v>
-      </c>
-      <c r="W148" t="s">
-        <v>391</v>
-      </c>
-      <c r="X148" t="s">
-        <v>392</v>
-      </c>
       <c r="Y148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AA148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AB148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AC148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AD148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AE148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AH148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AI148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AJ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AK148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AL148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AN148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AP148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AQ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AR148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AS148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AT148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AU148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AV148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AW148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AX148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AY148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AZ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BA148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BB148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BC148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BD148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BE148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BF148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BG148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BH148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BI148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BJ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BK148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BL148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BM148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BN148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BO148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BP148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BQ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BR148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BS148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BT148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BU148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BV148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BW148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BX148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BY148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BZ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CA148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CB148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CC148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CD148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CE148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CF148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CG148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CH148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CI148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CJ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CK148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CL148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CM148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CN148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CO148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CP148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CQ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CR148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CS148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CT148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CU148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CV148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CW148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CX148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CY148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="CZ148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DA148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DB148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DC148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DD148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DE148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DF148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DG148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DH148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="DI148" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
